--- a/Datasheets and components list/digikey_component_order.xlsx
+++ b/Datasheets and components list/digikey_component_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolagiandomenico/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\others\General-Documentation\Datasheets and components list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8BCE68-A435-D345-8F68-1535BCC86033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABA2377-AEF6-46AB-AA21-53B0E979E89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-20140" windowWidth="28800" windowHeight="14100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1140" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,15 +112,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,15 +134,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,190 +444,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
         <v>7</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7">
+        <v>196</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>196</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>